--- a/data/mall-cloud-alibaba/mall-mbg_structure.xlsx
+++ b/data/mall-cloud-alibaba/mall-mbg_structure.xlsx
@@ -141,13 +141,13 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>EXAMPLE_SUFFIX</t>
+  </si>
+  <si>
+    <t>addRemarkComments</t>
+  </si>
+  <si>
     <t>API_MODEL_PROPERTY_FULL_CLASS_NAME</t>
-  </si>
-  <si>
-    <t>addRemarkComments</t>
-  </si>
-  <si>
-    <t>EXAMPLE_SUFFIX</t>
   </si>
   <si>
     <t>Source Class Name</t>
